--- a/macbook.xlsx
+++ b/macbook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,1026 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air (13.3 inci, M1 2020)  8GB RAM, 256GB SSD, Space Grey</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17.199.000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>576 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 13.3 inch 8GB, 256GB, 8 Core CPU Apple M1 Chip, Space Gray</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.999.000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>330 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 13.3 inch 8GB, 256GB, 8 Core CPU Apple M1 Chip, Gold</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13.999.000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>162 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple MacBook Pro (14 inci, M1, 2021) 8C CPU, 14C GPU, 512GB, Space Grey</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31.799.000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple MacBook Pro 14 inch with 16GB, 1TB, 16 Core GPU Apple M1 Pro Chip, Space Gray</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>39.999.000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apple MacBook Pro 14 inch with 16GB, 512GB, 14 Core GPU Apple M1 Pro Chip, Silver</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>29.599.000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Apple 60W MagSafe 2 Power Adapter (MacBook Pro with 13inci Retina display)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.249.000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>378 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Monocozzi Lucid Translucent Hard Shell MacBook Air 13 Touch ID - Black</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>649.000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>31 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Monocozzi Lucid Translucent Hard Shell MacBook Pro 13 Touch Bar - White</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>649.000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>44 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rivacase Sleeve MacBook Pro 13 inch - Blue</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>449.000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IT Multi Port 8 in 1 Hub with USB-C cable for Macbook, iPad, PC and Tablet</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.299.000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IT Multi Port 5 in 1 Hub with USB-C cable for Macbook, iPad, PC and Tablet</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>999.000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Monocozzi Lucid Translucent Hard Shell MacBook Air 13 Touch Bar - Black</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>649.000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EMZ Case MacBook 13 inch Touch Bar - White</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>499.000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ibacks Macbook Air Case M1 2020 - Grey</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>799.000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MACBOOK PRO CORE I5 RAM 8 SSD 128GB HDD500GB MD101 BIGSUR MULUS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3.690.000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>638 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Laptop Branded Berkelas ORI - Core 2 Duo - Ram 4gb - VGA Nvidia GeForce - Bergaransi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2.520.000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>269 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Second ORIGINAL Macbook Air 13inch 2015 CORE I5 RAM 8GB SSD 128GB-256GB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3.724.000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>48 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ORIGINAL APPLE MACBOOK PRO 13 2022 M2 8GB 512GB SSD 13.3 RETINA TOUCHBAR SPACE GREY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18.799.000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HP 11 CHROMEBOOK / N4020 / 4GB / 160GB / 11.6"HD LAPTOP PELAJAR TERMURAH NEW ORIGINAL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.899.000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4,1RB Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Laptop Asus Vivobook E410MA INTEL N4020 RAM 4GB 512GB SSD 14FHD WINDOWS 11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3.718.000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,9RB Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Macbook Air 13 inch 2017 2015 2014 2013 2012 Second</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4.200.000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>OBRAL ..MAC BOOK AIR 13 IN 2015/2017 ..RAM 8 GB ..SSD 128/256..CORE I5/CORE I7 PROC 1.6/1.8GHZ.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3.400.000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>428 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PROMO MacBook Air 13 inch Early 2015 / 2017 Core i5 1.6GHz Ram 8GB Ssd 256 GB SECOND ORIGINAL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3.724.000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>328 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LENOVO SLIM D330 FLEX TOUCH N4020 RAM 8GB 128GB/256GB 10.1" HD W10 PRO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3.671.000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3,6RB Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>New MacBookkk Air M1 Chip 2020 8GB 13" 256GB / 512GB GRAY GOLD SILVER RESMI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13.230.000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>203 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>macbook white a1181 core2duo windows 7</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.150.000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OBRAL  AIR RETINA 2020 OS MONTEREY 13 IN RAM 8 SSD 128 MULUS ULTRA SLIM GREYY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7.300.000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>35 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Macbook Pro 13 Retina 2015 MF839 MF840 MF841</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6.500.000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Macbook Retina 13 inch 2020  Bisa Instant Kurir</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.900.000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>200 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Macbook Air 2017 13 inch intel Core i7 // i5 Ram 8Gb Ssd 128 / 256Gb</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3.450.000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>116 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MACBOOK PRO 2019 TOUCHBAR CORE i5 RAM 16GB SSD 256GB 13 INCHI MULUS GARANSI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9.950.000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ASUS E410MAO VIVOBOOK FHD4511 N4020 4GB 512SSD W11+OHS 14.0FHD BLIT NPAD BLU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4.436.000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>920 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Macbook Air 2017 13 Inch RAM 8 GB // SSD 128//256//512 GB Second Original</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6.200.000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PROMO EX DISPLAY APPLE MACBOOK PRO 2020 13 MYD82 M1 RAM 8GB SSD 256GB TOUCHBAR GARANSI 3 BULAN</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>19.499.000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Leptop Notebook 2in1 Lenovo Miix 320-10ICR Ram 4GB Super Murah</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.999.000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>177 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MacBook Pro 2017 15 Inch Retina Core i7 RAM 16GB SSD 512GB Touch Bar</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9.850.000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MacBook Air 13 M1 2020 [8 Core CPU | 7 Core GPU | 8GB | 256GB / 512GB] Garansi Resmi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16.355.000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>53 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MacBook Pro 2022 M2 Chip 13" Inch 512GB 256GB RAM 8GB not 2nd Second Like New</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18.799.000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>58 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>【Ready Stock】Laptop Pink 15.6 '' 12+512GB Kunci sidik jari + Win10 + Wifi + hadiah Cocok untuk kantor/belajar/desain grafis</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5.899.000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>178 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SECOND PROMO MACBOOK PRO 2012 13 INCH CI5/CI7 PROMO SECOND ORIGINAL GARANSI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2.900.000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ASUS VIVOBOOK FLIP TP1400KA HD421 2IN1 TOUCH N4500 4GB 256SSD W11+OHS 14.0 BLU</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5.650.000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>52 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PROMO..MAC PRO RETINA 13 IN 2016.RAM8/16.SSD256.COREI5.MULUS..GREYY</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7.400.000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MACBOOk AIR 2020 RAM 8 SSD 256 SECOND</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6.300.000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>52 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MacBook Air 13 inch 2017</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.450.000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>15 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MACBOOK PRO 13 CORE i5 RAM 16GB SSD 256GB HDD 500GB OS MOJAVE MULUS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3.300.000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>46 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MACBOOK AIR 11" 2015  RAM 4 SSD 128 SECOND ORIGINAL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3.700.000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>132 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Apple MacBook Pro (13.3 inci, M2, 2022) 8C CPU, 10C GPU, 512GB, Space Grey</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>24.999.000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>48 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>McBook Air 2020 13 inch M1 Chip 8 Core CPU/ 7 Core GPU/ 256GB SSD</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>13.496.000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1,2RB Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Termurah Macbook air 2015 11inch mulus second original</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3.500.000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MACBOOK PRO 2015 CORE i5 RAM 8GB SSD 128GB MULUS OS MONTEREY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5.750.000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>26 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Macbook Pro M1 2020 Touchbar Ram 8Gb Ssd 256Gb</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10.500.000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>21 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PROMO MacBook Air 13 inch MID 2011 - 2012</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2.700.000</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>49 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Laptop Macbook pro 13  - ram 4gb - ssd 256gb - vga Nvidia</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2.950.000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>95 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Lenovo V14 G2 AMD Ryzen 3 5300 8GB 256SSD Non Windows 14.0 inch HD Laptop Gaming Murah</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5.507.000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>252 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PROMO MacBook Pro 13 inch MID 2012 MD101 Core I5 2.5Ghz Ram 4GB Hdd 500GB SECOND</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2.900.000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>62 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Laptop MacBook Air 2020 13 inch M1 Chip 8 Core CPU 7 Core GPU 256GB</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>13.383.000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Macbook Pro 2016 Dual Core i5 8GB 128GB 256GB 512GB 13inch</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7.499.000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Macbook Air m1 2020 Ram 8Gb Ssd 256Gb Mulus</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7.000.000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>85 Terjual</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Macbook Pro 2012  MD101 13in Core i5 16GB SSD 512GB+500GB HDD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2.999.000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>230 Terjual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
